--- a/WebContent/template/employee_excel.xlsx
+++ b/WebContent/template/employee_excel.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="project" sheetId="2" r:id="rId2"/>
+    <sheet name="module" sheetId="3" r:id="rId3"/>
+    <sheet name="team" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="117">
   <si>
     <t>EmployeeId</t>
   </si>
@@ -33,27 +34,15 @@
     <t>EmployeeExpertise</t>
   </si>
   <si>
-    <t>EmployeeAttId</t>
-  </si>
-  <si>
     <t>EmployeeEmail</t>
   </si>
   <si>
-    <t>TeamId</t>
-  </si>
-  <si>
     <t>ase</t>
   </si>
   <si>
-    <t>sd120w</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
-    <t>13</t>
-  </si>
-  <si>
     <t>ProficiencyProject</t>
   </si>
   <si>
@@ -69,77 +58,323 @@
     <t>ActiveUser</t>
   </si>
   <si>
-    <t>p1</t>
-  </si>
-  <si>
-    <t>p2</t>
-  </si>
-  <si>
     <t>2342342531</t>
   </si>
   <si>
-    <t>2342342532</t>
-  </si>
-  <si>
     <t>Simlee</t>
   </si>
   <si>
-    <t>das</t>
-  </si>
-  <si>
     <t>java</t>
   </si>
   <si>
-    <t>sd120e</t>
-  </si>
-  <si>
     <t>simlee@accenture.com</t>
   </si>
   <si>
-    <t>das@accenture.com</t>
-  </si>
-  <si>
-    <t>TE-012</t>
-  </si>
-  <si>
-    <t>TE-01</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>2-15-2016</t>
-  </si>
-  <si>
-    <t>1-22-2015</t>
-  </si>
-  <si>
     <t>6-26-2102</t>
   </si>
   <si>
-    <t>6-16-2103</t>
-  </si>
-  <si>
     <t>ProficiencyCAMS</t>
   </si>
   <si>
     <t>50</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>LCR</t>
+  </si>
+  <si>
+    <t>ProjectName</t>
+  </si>
+  <si>
+    <t>ModuleName</t>
+  </si>
+  <si>
+    <t>TeamName</t>
+  </si>
+  <si>
+    <t>PREMIER</t>
+  </si>
+  <si>
+    <t>E-Strategy</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>UIDC</t>
+  </si>
+  <si>
+    <t>Team6-Premier</t>
+  </si>
+  <si>
+    <t>EmployeeClientId</t>
+  </si>
+  <si>
+    <t>Premier2</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>ASM</t>
+  </si>
+  <si>
+    <t>PE</t>
+  </si>
+  <si>
+    <t>Leadership and Management</t>
+  </si>
+  <si>
+    <t>E-Ordering</t>
+  </si>
+  <si>
+    <t>E-Status</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>MnM</t>
+  </si>
+  <si>
+    <t>FreeModule Estrategy</t>
+  </si>
+  <si>
+    <t>SCM</t>
+  </si>
+  <si>
+    <t>BIDR3-1</t>
+  </si>
+  <si>
+    <t>BIDR3-2</t>
+  </si>
+  <si>
+    <t>FreeModule Premier</t>
+  </si>
+  <si>
+    <t>Premier1</t>
+  </si>
+  <si>
+    <t>Premier3</t>
+  </si>
+  <si>
+    <t>Premier4</t>
+  </si>
+  <si>
+    <t>LEADERSHIP</t>
+  </si>
+  <si>
+    <t>EQT</t>
+  </si>
+  <si>
+    <t>e-Order- Support</t>
+  </si>
+  <si>
+    <t>eDSL</t>
+  </si>
+  <si>
+    <t>FBS</t>
+  </si>
+  <si>
+    <t>Status 1</t>
+  </si>
+  <si>
+    <t>Status 2</t>
+  </si>
+  <si>
+    <t>Service Layer</t>
+  </si>
+  <si>
+    <t>UCP</t>
+  </si>
+  <si>
+    <t>Trinity</t>
+  </si>
+  <si>
+    <t>Rainbow</t>
+  </si>
+  <si>
+    <t>UPCE</t>
+  </si>
+  <si>
+    <t>AVPN-OLS</t>
+  </si>
+  <si>
+    <t>FreeTeam</t>
+  </si>
+  <si>
+    <t>Team1-Premier</t>
+  </si>
+  <si>
+    <t>Team2-Premier</t>
+  </si>
+  <si>
+    <t>Team3-Premier</t>
+  </si>
+  <si>
+    <t>Team4-Premier</t>
+  </si>
+  <si>
+    <t>Team5-Premier</t>
+  </si>
+  <si>
+    <t>Team7-Premier</t>
+  </si>
+  <si>
+    <t>Team8-Premier</t>
+  </si>
+  <si>
+    <t>Free Team-Premier</t>
+  </si>
+  <si>
+    <t>Team1-R3</t>
+  </si>
+  <si>
+    <t>Team2-R3</t>
+  </si>
+  <si>
+    <t>Free team-R3</t>
+  </si>
+  <si>
+    <t>Team1-ASM</t>
+  </si>
+  <si>
+    <t>Team2-SCM</t>
+  </si>
+  <si>
+    <t>Team1-PE</t>
+  </si>
+  <si>
+    <t>Free E-Orderin</t>
+  </si>
+  <si>
+    <t>Free E-Status</t>
+  </si>
+  <si>
+    <t>Leadership</t>
+  </si>
+  <si>
+    <t>Free MnM</t>
+  </si>
+  <si>
+    <t>Free Premier1</t>
+  </si>
+  <si>
+    <t>Free Premier2</t>
+  </si>
+  <si>
+    <t>Free Premier3</t>
+  </si>
+  <si>
+    <t>Free Premier4</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Free Registration</t>
+  </si>
+  <si>
+    <t>Free R3</t>
+  </si>
+  <si>
+    <t>Free Testing</t>
+  </si>
+  <si>
+    <t>TeamDescription</t>
+  </si>
+  <si>
+    <t>Team works for E-ordering</t>
+  </si>
+  <si>
+    <t>Team works for E-status</t>
+  </si>
+  <si>
+    <t>Team works for Registration</t>
+  </si>
+  <si>
+    <t>Team works for MnM</t>
+  </si>
+  <si>
+    <t>Non-billable Team of E-strategy</t>
+  </si>
+  <si>
+    <t>Team works for Premier1</t>
+  </si>
+  <si>
+    <t>Team works for Premier2</t>
+  </si>
+  <si>
+    <t>Team works for Premier3</t>
+  </si>
+  <si>
+    <t>Team works for Premier4</t>
+  </si>
+  <si>
+    <t>Team works for Premier5</t>
+  </si>
+  <si>
+    <t>Non-billable Team of Premier</t>
+  </si>
+  <si>
+    <t>Team works for BIDR3</t>
+  </si>
+  <si>
+    <t>Team works for BIDR3-DSL</t>
+  </si>
+  <si>
+    <t>Non-billable Team of R3</t>
+  </si>
+  <si>
+    <t>Team works for ASM</t>
+  </si>
+  <si>
+    <t>Team works for SCM</t>
+  </si>
+  <si>
+    <t>Team works for PE</t>
+  </si>
+  <si>
+    <t>Free E-Ordering Resources</t>
+  </si>
+  <si>
+    <t>Free E-Status Resources</t>
+  </si>
+  <si>
+    <t>Free Mnm Resources</t>
+  </si>
+  <si>
+    <t>FreePremier1 Resources</t>
+  </si>
+  <si>
+    <t>Free Premier2  Resources</t>
+  </si>
+  <si>
+    <t>Free Premier3  Resources</t>
+  </si>
+  <si>
+    <t>Free  Premier4  Resources</t>
+  </si>
+  <si>
+    <t>PMO</t>
+  </si>
+  <si>
+    <t>Free Registration Resources</t>
+  </si>
+  <si>
+    <t>Free R3  Resources</t>
+  </si>
+  <si>
+    <t>Free Testing Resources</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,16 +390,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -172,19 +441,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Sheet3" xfId="2"/>
+    <cellStyle name="Normal_team" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -483,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:O1048576"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,15 +815,16 @@
     <col min="4" max="4" width="16" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="13.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,160 +841,615 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A4:L10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="E5" s="7"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="3" max="3" width="60.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/WebContent/template/employee_excel.xlsx
+++ b/WebContent/template/employee_excel.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="112">
   <si>
     <t>EmployeeId</t>
   </si>
@@ -130,9 +130,6 @@
     <t>E-Ordering</t>
   </si>
   <si>
-    <t>E-Status</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
@@ -178,15 +175,6 @@
     <t>FBS</t>
   </si>
   <si>
-    <t>Status 1</t>
-  </si>
-  <si>
-    <t>Status 2</t>
-  </si>
-  <si>
-    <t>Service Layer</t>
-  </si>
-  <si>
     <t>UCP</t>
   </si>
   <si>
@@ -287,9 +275,6 @@
   </si>
   <si>
     <t>Team works for E-ordering</t>
-  </si>
-  <si>
-    <t>Team works for E-status</t>
   </si>
   <si>
     <t>Team works for Registration</t>
@@ -959,7 +944,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -982,7 +967,7 @@
   <dimension ref="A4:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,7 +983,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>33</v>
@@ -1010,22 +995,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>36</v>
-      </c>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
@@ -1034,21 +1016,21 @@
         <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -1056,26 +1038,26 @@
         <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1085,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1102,351 +1084,327 @@
         <v>24</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="C3" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="C4" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="C5" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="C6" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="C8" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="C10" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="C12" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="C13" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="9" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="9" t="s">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="9" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="9" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="9" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="9" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="9" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="9" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C27" s="9" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C28" s="9" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="9" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="9" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="9" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="9" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" s="9" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="C34" s="9" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="9" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36" s="9" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="9" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="9" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="9" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="9" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/WebContent/template/employee_excel.xlsx
+++ b/WebContent/template/employee_excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="117">
   <si>
     <t>EmployeeId</t>
   </si>
@@ -130,6 +130,9 @@
     <t>E-Ordering</t>
   </si>
   <si>
+    <t>E-Status</t>
+  </si>
+  <si>
     <t>Testing</t>
   </si>
   <si>
@@ -175,6 +178,15 @@
     <t>FBS</t>
   </si>
   <si>
+    <t>Status 1</t>
+  </si>
+  <si>
+    <t>Status 2</t>
+  </si>
+  <si>
+    <t>Service Layer</t>
+  </si>
+  <si>
     <t>UCP</t>
   </si>
   <si>
@@ -275,6 +287,9 @@
   </si>
   <si>
     <t>Team works for E-ordering</t>
+  </si>
+  <si>
+    <t>Team works for E-status</t>
   </si>
   <si>
     <t>Team works for Registration</t>
@@ -788,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,10 +818,11 @@
     <col min="7" max="8" width="14.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="17.140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -904,6 +920,26 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="10">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="NUMERIC VALUES ARE ONY PERMITTED" promptTitle="ALERT" prompt="PLEASE ENTER NUMERIC VALUES ONLY" sqref="A1:A1048576">
+      <formula1>10000000</formula1>
+      <formula2>99999999</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ERROR" error="EMPLOYEE LEVEL CAN BE NUMERIC ONLY(FROM 1-12)" promptTitle="ALERT" prompt="EMPLOYEE LEVEL CAN BE NUMERIC ONLY(FROM 1-12)" sqref="D1:D1048576">
+      <formula1>1</formula1>
+      <formula2>12</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ALERT" prompt="PLEASE REFER TO PROJECT SHEET FOR THE EXCAT NAME OF THE PROJECT._x000a__x000a_" sqref="H1:H1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ALERT" prompt="PLEASE REFER TO PROJECT SHEET FOR THE EXCAT NAME OF THE MODULE_x000a__x000a_" sqref="I1:I1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ALERT" prompt="PLEASE REFER TO PROJECT SHEET FOR THE EXCAT NAME OF THE TEAM_x000a__x000a_" sqref="J1:J1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ALERT" prompt="PLEASE ENTER DATE IN THE FOLLOWING FORMAT-MM-DD-YYYY" sqref="M1:M1048576 N1:N1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ALERT" prompt="PLEASE ENTER YES/NO" sqref="P1:P1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ALERT" prompt="DECIMALS ARE ALLOWED" sqref="Q1:Q1048576"/>
+    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="YES/NO IS EXPECTED" promptTitle="ALERT" prompt="PLEASE ENTER YES/NO" sqref="O1:O1048576"/>
+    <dataValidation type="custom" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="ALERT" prompt="Accenture E-mail ID is only ALLOWED" sqref="G1:G1048576">
+      <formula1>CONCATENATE(A1,"@gmail.com")</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
   </hyperlinks>
@@ -944,7 +980,7 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
@@ -967,7 +1003,7 @@
   <dimension ref="A4:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,7 +1019,7 @@
         <v>25</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>33</v>
@@ -995,19 +1031,22 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>36</v>
+      </c>
       <c r="C5" s="7"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
@@ -1016,21 +1055,21 @@
         <v>34</v>
       </c>
       <c r="L6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -1038,26 +1077,26 @@
         <v>27</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1067,10 +1106,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,327 +1123,351 @@
         <v>24</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="C10" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>55</v>
-      </c>
       <c r="C12" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>65</v>
-      </c>
       <c r="C23" s="9" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
